--- a/projects/test_building/input/Parameter_VentilationTechnology_EnergyIntensity.xlsx
+++ b/projects/test_building/input/Parameter_VentilationTechnology_EnergyIntensity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADA235-CF03-2348-A08B-96A3F6D6E584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A899A1-E321-CC46-AAD1-CC120C193EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="3160" windowWidth="22260" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,7 +199,7 @@
     <t>id_ventilation_technology_efficiency_class</t>
   </si>
   <si>
-    <t>kWh/m2</t>
+    <t>kWh/m2-year</t>
   </si>
 </sst>
 </file>
@@ -4624,13 +4624,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">

--- a/projects/test_building/input/Parameter_VentilationTechnology_EnergyIntensity.xlsx
+++ b/projects/test_building/input/Parameter_VentilationTechnology_EnergyIntensity.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A899A1-E321-CC46-AAD1-CC120C193EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3160" windowWidth="22260" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="3165" windowWidth="22260" windowHeight="13425"/>
   </bookViews>
   <sheets>
     <sheet name="lifetime_tuned" sheetId="3" r:id="rId1"/>
@@ -17,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lifetime_tuned (2)'!$A$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +34,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This number is estimated based on the data from FORECAST-ResidentialAppliance:
+OperationHour * OperationPower / AverageDwellingFloorArea
+The other numbers are linearly calculated with the EEI from FORECAST-ResidenialAppliance</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -205,11 +240,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +273,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -313,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -334,11 +383,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -583,7 +636,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -780,7 +833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -862,7 +915,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -894,7 +947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -937,7 +990,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -967,7 +1020,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -981,7 +1034,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1148,7 +1201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1207,7 +1260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1250,7 +1303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1280,7 +1333,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1294,7 +1347,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1473,7 +1526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1532,7 +1585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1575,7 +1628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1605,7 +1658,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1619,7 +1672,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1827,7 +1880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1865,7 +1918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1924,7 +1977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1967,7 +2020,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1997,7 +2050,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4298,61 +4351,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9207350-223A-6944-9DFD-0B58C3F39AB8}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{F9207350-223A-6944-9DFD-0B58C3F39AB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{12CCBE7C-132B-214D-811B-71AD274B185F}" name="id_ventilation_technology"/>
-    <tableColumn id="2" xr3:uid="{D576F425-E1A4-A74B-A212-11585BB4BF55}" name="id_ventilation_technology_efficiency_class"/>
-    <tableColumn id="3" xr3:uid="{9AB520CE-F99B-1B41-AD2D-5F9E0F7C67FE}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{163A7491-5B73-B540-A693-2F633EFA07BB}" name="value"/>
+    <tableColumn id="1" name="id_ventilation_technology"/>
+    <tableColumn id="2" name="id_ventilation_technology_efficiency_class"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:F36"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_building_component"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="min"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="max"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min"/>
+    <tableColumn id="5" name="max"/>
+    <tableColumn id="6" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
-  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
+  <autoFilter ref="A1:I50"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id_scenario"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="id_building_component"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="min"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="max"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="pdf_literature"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="pdf"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="sum_pdf_literature"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="sum_pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="7" name="id_building_component"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="min"/>
+    <tableColumn id="2" name="max"/>
+    <tableColumn id="3" name="pdf_literature"/>
+    <tableColumn id="8" name="pdf"/>
+    <tableColumn id="4" name="sum_pdf_literature"/>
+    <tableColumn id="9" name="sum_pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="id_building_component" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="min" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="max" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component" dataDxfId="3"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min" dataDxfId="2"/>
+    <tableColumn id="5" name="max" dataDxfId="1"/>
+    <tableColumn id="6" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4620,21 +4673,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4648,7 +4701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4658,11 +4711,11 @@
       <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="20">
+        <v>0.17241379310344829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4672,11 +4725,11 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="20">
+        <v>0.17931034482758623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4686,11 +4739,11 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="20">
+        <v>0.18620689655172418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4700,11 +4753,11 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4714,11 +4767,11 @@
       <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="20">
+        <v>0.21379310344827587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4728,11 +4781,11 @@
       <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="20">
+        <v>0.22758620689655176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4742,34 +4795,35 @@
       <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="D8">
-        <v>0.01</v>
+      <c r="D8" s="20">
+        <v>0.24827586206896551</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4789,7 +4843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4819,7 +4873,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4846,7 +4900,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4873,7 +4927,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4900,7 +4954,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -4927,7 +4981,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4954,7 +5008,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -4981,7 +5035,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -5008,7 +5062,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5035,7 +5089,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -5062,7 +5116,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -5089,7 +5143,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -5116,7 +5170,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5147,7 +5201,7 @@
         <v>50.926829268292664</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -5178,7 +5232,7 @@
       </c>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5206,7 +5260,7 @@
       </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -5234,7 +5288,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -5262,7 +5316,7 @@
       </c>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -5290,7 +5344,7 @@
       </c>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -5318,7 +5372,7 @@
       </c>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -5346,7 +5400,7 @@
       </c>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -5377,7 +5431,7 @@
         <v>24.708333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -5408,7 +5462,7 @@
       </c>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -5436,7 +5490,7 @@
       </c>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -5464,7 +5518,7 @@
       </c>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -5492,7 +5546,7 @@
       </c>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -5521,7 +5575,7 @@
       <c r="J27" s="19"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5550,7 +5604,7 @@
       <c r="J28" s="19"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -5579,7 +5633,7 @@
       <c r="J29" s="19"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5608,7 +5662,7 @@
       <c r="J30" s="19"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -5637,7 +5691,7 @@
       <c r="J31" s="19"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -5669,7 +5723,7 @@
       </c>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -5701,7 +5755,7 @@
       <c r="J33" s="19"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -5730,7 +5784,7 @@
       <c r="J34" s="19"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -5759,7 +5813,7 @@
       <c r="J35" s="19"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -5788,7 +5842,7 @@
       <c r="J36" s="19"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -5816,7 +5870,7 @@
       </c>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -5844,7 +5898,7 @@
       </c>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -5872,7 +5926,7 @@
       </c>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -5900,7 +5954,7 @@
       </c>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -5928,7 +5982,7 @@
       </c>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -5956,7 +6010,7 @@
       </c>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -5984,7 +6038,7 @@
       </c>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -6016,28 +6070,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -6057,7 +6111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6077,7 +6131,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6097,7 +6151,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6117,7 +6171,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6137,7 +6191,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6157,7 +6211,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6177,7 +6231,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6197,7 +6251,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6217,7 +6271,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6237,7 +6291,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6257,7 +6311,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6277,7 +6331,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6297,7 +6351,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6317,7 +6371,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6337,7 +6391,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6357,7 +6411,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6377,7 +6431,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6397,7 +6451,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6417,7 +6471,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6437,7 +6491,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6457,7 +6511,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6477,7 +6531,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6497,7 +6551,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6517,7 +6571,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6537,7 +6591,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6557,7 +6611,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6577,7 +6631,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6597,7 +6651,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6617,7 +6671,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6637,7 +6691,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6657,7 +6711,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6677,7 +6731,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6697,7 +6751,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6717,7 +6771,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6737,7 +6791,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6767,27 +6821,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6834,7 +6888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6871,7 +6925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6908,7 +6962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6945,7 +6999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6982,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7010,7 +7064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7038,7 +7092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7066,7 +7120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7094,7 +7148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7122,7 +7176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7153,7 +7207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7184,7 +7238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7215,7 +7269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7262,7 +7316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7293,7 +7347,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7324,7 +7378,7 @@
         <v>0.61176470588235299</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7355,7 +7409,7 @@
         <v>4.2352941176470589</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7386,7 +7440,7 @@
         <v>3.2470588235294118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7417,7 +7471,7 @@
         <v>3.9529411764705884</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7448,7 +7502,7 @@
         <v>6.2117647058823531</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7479,7 +7533,7 @@
         <v>3.5764705882352943</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7510,7 +7564,7 @@
         <v>4.0470588235294116</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7541,7 +7595,7 @@
         <v>2.2588235294117647</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7572,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7603,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7634,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7681,7 +7735,7 @@
         <v>28.229411764705883</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7709,7 +7763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7737,7 +7791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7765,7 +7819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7793,7 +7847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7821,7 +7875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7849,7 +7903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7877,7 +7931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7905,7 +7959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7933,7 +7987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7977,7 +8031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -8005,7 +8059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8033,7 +8087,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -8061,7 +8115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -8089,7 +8143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8117,7 +8171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -8145,7 +8199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8173,7 +8227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8201,7 +8255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8229,7 +8283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8257,7 +8311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -8285,7 +8339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8313,7 +8367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8367,20 +8421,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -8400,7 +8454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8424,7 +8478,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8448,7 +8502,7 @@
         <v>3.5500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8472,7 +8526,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -8500,7 +8554,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8522,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -8544,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -8566,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -8592,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -8614,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -8636,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -8658,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -8684,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -8706,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -8728,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -8750,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>
